--- a/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
@@ -1060,6 +1060,9 @@
       <c r="G2" t="str">
         <v>07105610555555555555510555510108555555555565355551085102638101010105010101015101010101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,15 +446,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F2" t="str">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
         <v>10</v>
@@ -465,542 +465,68 @@
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F4" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>168_火焰_Fire Flare_Rosa rugosa Thunb._20stems</v>
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
       </c>
       <c r="F5" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>2</v>
+      </c>
       <c r="C7" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F8" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F9" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
       </c>
       <c r="F10" t="str">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2</v>
-      </c>
-      <c r="C11" t="str">
-        <v>327_文竹_asparagus fern_undefined_1bunch</v>
-      </c>
-      <c r="F11" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F12" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
-      </c>
-      <c r="F13" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
-        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
-      </c>
-      <c r="F14" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
-      </c>
-      <c r="F15" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="C16" t="str" xml:space="preserve">
-        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
-（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
-      </c>
-      <c r="F16" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="C17" t="str" xml:space="preserve">
-        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
-（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
-      </c>
-      <c r="F17" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="C18" t="str" xml:space="preserve">
-        <v xml:space="preserve">542_吊米 红_hanging amaranthus
-red_undefined_1bunch</v>
-      </c>
-      <c r="F18" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F19" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
-      </c>
-      <c r="F20" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="str">
-        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
-      </c>
-      <c r="F21" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F22" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>479_绿灵草_lepidium_undefined_1bunch</v>
-      </c>
-      <c r="F23" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F24" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F25" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v>121_绣球鲜红_Hydrangea_Hydrangea L._1stem</v>
-      </c>
-      <c r="F26" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
-      </c>
-      <c r="F27" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="str">
-        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
-      </c>
-      <c r="F28" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
         <v>3</v>
-      </c>
-      <c r="C29" t="str">
-        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F29" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F30" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F31" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F32" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
-      </c>
-      <c r="F33" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F34" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F35" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str">
-        <v>4</v>
-      </c>
-      <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">373_龙柳_Salix
-_undefined_1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>5</v>
-      </c>
-      <c r="C37" t="str">
-        <v>743_永生吊米红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F37" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F38" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F39" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>678_百合皇后_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F40" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>546_绿宝石_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F41" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="str">
-        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
-      </c>
-      <c r="F42" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
-      </c>
-      <c r="F43" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="str">
-        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
-      </c>
-      <c r="F44" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
-      </c>
-      <c r="F45" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
-      </c>
-      <c r="F46" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F47" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>1</v>
-      </c>
-      <c r="C48" t="str">
-        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F48" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F49" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F50" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F51" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="str">
-        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F52" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F53" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F54" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F55" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>2</v>
-      </c>
-      <c r="C56" t="str">
-        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
-      </c>
-      <c r="F56" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F57" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="str">
-        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F58" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="str">
-        <v>577_腊梅白_wax white_undefined_1bunch</v>
-      </c>
-      <c r="F59" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" xml:space="preserve">
-      <c r="C60" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F60" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="str">
-        <v>479_绿灵草_lepidium_undefined_1bunch</v>
-      </c>
-      <c r="F61" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
-      </c>
-      <c r="F62" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>3</v>
-      </c>
-      <c r="C63" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F63" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="str">
-        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F64" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="str">
-        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F65" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F66" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="str">
-        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
-      </c>
-      <c r="F67" t="str">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1058,10 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>07105610555555555555510555510108555555555565355551085102638101010105010101015101010101010</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>019109452498140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +523,251 @@
       <c r="A11" t="str">
         <v>3</v>
       </c>
+      <c r="C11" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F11" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F14" t="str">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>5</v>
+      </c>
+      <c r="C19" t="str">
+        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>6</v>
+      </c>
+      <c r="C26" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>808_百合黑贝壳_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F39" t="str">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L39"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +825,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>019109452498140</v>
+        <v>01910945249814166106171010810105532055155555552051081031</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-21.xlsx
@@ -827,6 +827,9 @@
       <c r="G2" t="str">
         <v>01910945249814166106171010810105532055155555552051081031</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
